--- a/ExcelReportGenerator.Tests/TestData/DataSourcePanelIEnumerableRenderTest/TestRenderIEnumerableVerticalNoShift.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourcePanelIEnumerableRenderTest/TestRenderIEnumerableVerticalNoShift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>{di:Name}</x:t>
   </x:si>
@@ -25,6 +25,12 @@
     <x:t>15_345</x:t>
   </x:si>
   <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>345</x:t>
+  </x:si>
+  <x:si>
     <x:t>String parameter</x:t>
   </x:si>
   <x:si>
@@ -34,10 +40,22 @@
     <x:t>76_753465</x:t>
   </x:si>
   <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>753465</x:t>
+  </x:si>
+  <x:si>
     <x:t>Test3</x:t>
   </x:si>
   <x:si>
     <x:t>1533_5456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5456</x:t>
   </x:si>
   <x:si>
     <x:t>{di:Date}</x:t>
@@ -494,7 +512,7 @@
       <x:c r="C2" s="2">
         <x:v>43040</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="D2" s="0">
         <x:v>55.76</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
@@ -505,16 +523,16 @@
       <x:c r="A3" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="n">
-        <x:v>345</x:v>
+      <x:c r="B3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E3" s="3" t="s"/>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E3" s="3"/>
       <x:c r="F3" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -524,62 +542,62 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="2">
         <x:v>43041</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
+      <x:c r="D4" s="0">
         <x:v>110</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="0" t="n">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="n">
-        <x:v>753465</x:v>
+      <x:c r="B5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s"/>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E5" s="3"/>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="B6" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="2">
         <x:v>43042</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="n">
+      <x:c r="D6" s="0">
         <x:v>5500.8</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
-      <x:c r="B7" s="0" t="n">
-        <x:v>1533</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="n">
-        <x:v>5456</x:v>
+      <x:c r="B7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E7" s="3" t="s"/>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E7" s="3"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="E8" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
